--- a/publipostage/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCT00134212</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NCT00151606</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Prospective, Randomized Study on Two Parallel Groups Comparing Dopexamine and Norepinephrine in Combination to Epinephrine Alone on Systemic and Pulmonary Hemodynamics, Gastric Mucosal Perfusion, and Oxidative Stress in Septic Shock</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Evaluation of Two Protocols to Prevent the Acquisition of Methicillin-Resistant Staphylococcus Aureus in Intensive Care Units.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT00151606</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT00134212</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Evaluation of Two Protocols to Prevent the Acquisition of Methicillin-Resistant Staphylococcus Aureus in Intensive Care Units.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Prospective, Randomized Study on Two Parallel Groups Comparing Dopexamine and Norepinephrine in Combination to Epinephrine Alone on Systemic and Pulmonary Hemodynamics, Gastric Mucosal Perfusion, and Oxidative Stress in Septic Shock</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00219856</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Prospective, Randomized, Simple Blind Study Comparing the Effects of an Anaesthesia With Propofol to an Anaesthesia With Desflurane on Oxydative Stress and Liver Function Recovery After Hepatectomy</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,28 +607,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT00138684</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT00151580</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cytochrome P450 2E1 and Iron Overload</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comparison of Maintenance Treatment by Ribavirin to a Placebo, After an Initial One-year Treatment With Pegylated Interferon-α2a - Ribavirin Association in Hepatitis C Viral Recurrence After Liver Transplantation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TRANSPEG</t>
+        </is>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -620,33 +649,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00151567</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00138684</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Interest of a Treatment With the alpha1-blocker Tamsulosin in the Elimination of Pelvis Ureteral Stones</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TAMSULOSINE</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
+          <t>Cytochrome P450 2E1 and Iron Overload</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -657,29 +687,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT00151593</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT00151567</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Celsior®: Evaluation of an Organ Preservation Solution in Liver Transplantation.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Interest of a Treatment With the alpha1-blocker Tamsulosin in the Elimination of Pelvis Ureteral Stones</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>TAMSULOSINE</t>
+        </is>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -690,32 +729,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT00151580</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT00151593</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Comparison of Maintenance Treatment by Ribavirin to a Placebo, After an Initial One-year Treatment With Pegylated Interferon-α2a - Ribavirin Association in Hepatitis C Viral Recurrence After Liver Transplantation</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TRANSPEG</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+          <t>Celsior®: Evaluation of an Organ Preservation Solution in Liver Transplantation.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -727,33 +767,38 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT00305916</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT00280592</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Accuracy of Multislice Spiral Computed Tomography in Diagnosis of Coronary Artery Disease Associated to Idiopathic Cardiomyopathy in Sinus Rhythm ("MSCT-IC Study").</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CMD-scanner</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>Prospective, Randomized, Double-blind, Placebo-controlled Study on Parallel Groups Evaluating the Efficacy and Safety of Cranberry (Vaccinium Macrocarpon) in Prevention of Urinary Tract Infections in Multiple Sclerosis Patients.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>CANNEBERGE</t>
+        </is>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -764,33 +809,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT00280592</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT00305916</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Prospective, Randomized, Double-blind, Placebo-controlled Study on Parallel Groups Evaluating the Efficacy and Safety of Cranberry (Vaccinium Macrocarpon) in Prevention of Urinary Tract Infections in Multiple Sclerosis Patients.</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CANNEBERGE</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Accuracy of Multislice Spiral Computed Tomography in Diagnosis of Coronary Artery Disease Associated to Idiopathic Cardiomyopathy in Sinus Rhythm ("MSCT-IC Study").</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CMD-scanner</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -801,28 +851,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT01282567</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT00598026</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Preliminary Study for the Artificial Pancreas Project : Determination of a Tuning Strategy of Metabolic Profiles</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Evaluation of the " Tele-follow-up " for the Follow-up of Implantable Defibrillators</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>EVATEL</t>
+        </is>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -834,32 +893,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT00598026</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT01282567</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Evaluation of the " Tele-follow-up " for the Follow-up of Implantable Defibrillators</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EVATEL</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
+          <t>Preliminary Study for the Artificial Pancreas Project : Determination of a Tuning Strategy of Metabolic Profiles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -871,33 +931,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT01435668</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT01437917</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Impact Evaluation at 3 Months Follow-up of a Brief Motivational Intervention in Reducing Alcohol Consumption Versus Simple Written Advice Only Among Adolescents Aged 16-24 in Pontchaillou Hospital Emergency Department in Rennes, France</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AURAIA</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
+          <t>NOMAC : New Tools for Managing the Fate of Cereal Nutrients in the Gut : Effects of Amylose Content on Glycemic Index.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NOMAC</t>
+        </is>
       </c>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -908,33 +973,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT01437917</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT01435668</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NOMAC : New Tools for Managing the Fate of Cereal Nutrients in the Gut : Effects of Amylose Content on Glycemic Index.</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NOMAC</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Impact Evaluation at 3 Months Follow-up of a Brief Motivational Intervention in Reducing Alcohol Consumption Versus Simple Written Advice Only Among Adolescents Aged 16-24 in Pontchaillou Hospital Emergency Department in Rennes, France</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>AURAIA</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -945,32 +1015,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT00401336</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT01282554</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Quantification of Liver Iron Overload and Steatosis Using a New Magnetic Resonance Imaging Multiecho Gradient-echo Sequence</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SURFER</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>Evaluation of Electrostimulation Program During Dialysis Sessions in Chronic Renal Failure Patients</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>EMS-Dialyse</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -982,106 +1057,121 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>NCT01780883</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Melatonin Dose-effect Relation in Childhood Autism</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>MELADOSE</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT01883024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT00401336</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Prospective Study, Insulin Pump-RT Advisor (IPRA©): a Decision Support Software for Diabetic Patients Treated by Insulin Pump and Using Continuous Glucose Monitoring. Experimental Study. Evaluation by an Expert Patient Panel.</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>IPRA</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Quantification of Liver Iron Overload and Steatosis Using a New Magnetic Resonance Imaging Multiecho Gradient-echo Sequence</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>SURFER</t>
+        </is>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01282554</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT01883024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Evaluation of Electrostimulation Program During Dialysis Sessions in Chronic Renal Failure Patients</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>EMS-Dialyse</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Prospective Study, Insulin Pump-RT Advisor (IPRA©): a Decision Support Software for Diabetic Patients Treated by Insulin Pump and Using Continuous Glucose Monitoring. Experimental Study. Evaluation by an Expert Patient Panel.</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>IPRA</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1091,105 +1181,124 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>2008-008372-13</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Etude de phase III randomisée, ouverte, multicentrique comparant chez des sujets âgés de plus de 70 ans atteints de cancer bronchique non à petites cellules de stade IV ou IIIb (T4 plèvre ou péricarde) une stratégie « classique » d’attribution d’un traitement par bithérapie à base de carboplatine ou une monothérapie par Docetaxel seul basée sur le PS et l’âge à une stratégie « optimisée » utilisant les mêmes drogues attribuées selon une échelle gériatrique simplifiée de dépistage plus ou moins complétée d’une évaluation gériatrique approfondie</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>esogia</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01543113</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT02061488</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>cKIT, BRAF/NRAS Mutations in Advanced Melanoma : Clinical Outcome in Response to Tyrosine-kinase Inhibitors - KitMel Project</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>KitMel</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
+          <t>Prospective, Monocentric, Crossover Randomized Trial, to Assess a New Closed-loop Algorithm in Type 1 Diabetes (Saddle Point Model Predictive Control : SP-MPC)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PPA</t>
+        </is>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01257139</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
+          <t>2008-006045-10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ESOGIA</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Effet de la stimulation dopaminergique continue par pompe à apomorphine sur les fluctuations cognitives et psychiques des patients parkinsoniens: étude clinique et métabolique cérébrale par TEP au 18FDG</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>APO TEP</t>
+        </is>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1200,32 +1309,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>NCT02304874</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Evaluation of Body Iron Stores in Overweight Healthy Volunteers</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>FERNORM</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
       <c r="H22" t="b">
         <v>1</v>
       </c>
       <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1237,140 +1351,160 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>NCT01543100</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Prognostic Study of Markers of Angiogenesis and Coagulability in Patients With Monoclonal Gammopathy</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>PACMoG</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02061488</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT01543113</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Prospective, Monocentric, Crossover Randomized Trial, to Assess a New Closed-loop Algorithm in Type 1 Diabetes (Saddle Point Model Predictive Control : SP-MPC)</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>PPA</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>cKIT, BRAF/NRAS Mutations in Advanced Melanoma : Clinical Outcome in Response to Tyrosine-kinase Inhibitors - KitMel Project</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>KitMel</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2008-006045-10</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
+          <t>NCT01257139</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Effet de la stimulation dopaminergique continue par pompe à apomorphine sur les fluctuations cognitives et psychiques des patients parkinsoniens: étude clinique et métabolique cérébrale par TEP au 18FDG</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>APO TEP</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ESOGIA</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT02882399</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT02067455</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Shortystrap</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>This is a Non-randomized, Single-center, Prospective Investigation on Exercise Capacities of Left Ventricular Assist Devices Recipients</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>REVADE</t>
+        </is>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1381,32 +1515,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT02149862</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT01673230</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>FIRBladd - Use of Infrared Spectroscopy in the Diagnosis of Bladder Tumors</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>FIRBladd</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Hemodynamic Indices Predictive of a Beneficial Response to Fluid Expansion in Case of Hemodynamic Failure After Cardiac Surgery With Altered Preoperative Ejection Fraction (LVEF≤45%): Sensibility and Specificity of Respiratory Variations of Pulse Pressure (∆PP), Photoplethysmography (∆POP), Perfusion Index (PVI), Before and After Fluid Expansion.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ALTERVOL</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1418,32 +1557,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT01576315</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02305771</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Efficacy of Itraconazole and of Voriconazole in Patients With Cystic Fibrosis and Presenting With Persistent Positive Sputums for Aspergillus.</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ATCF</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Contributions From the Analysis of Graphs for Identification of Neural Cliques</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BRAINGRAPH</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1455,33 +1599,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT02305771</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT02882399</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Contributions From the Analysis of Graphs for Identification of Neural Cliques</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>BRAINGRAPH</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Shortystrap</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1492,70 +1637,80 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT02060578</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01576315</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>DELI-DEVI : Determinants of End-of-life Place of Care for Children Suffering From Cancer.</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DELI-DEVI</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
+          <t>Efficacy of Itraconazole and of Voriconazole in Patients With Cystic Fibrosis and Presenting With Persistent Positive Sputums for Aspergillus.</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ATCF</t>
+        </is>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT01039090</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT02149862</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Prospective, Randomised, Comparative Study Comparing Efficacy of Continuous Apomorphine Infusion Versus Usual Dopaminergic Per os Treatment on Cognitive and Neuropsychological Functions in Parkinson's Disease: a Clinical and PET-scan Study</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>APO-TEP</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>FIRBladd - Use of Infrared Spectroscopy in the Diagnosis of Bladder Tumors</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>FIRBladd</t>
+        </is>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1566,70 +1721,80 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT01572818</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT02096367</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Effects of Phlebotomy on Insulin Sensitivity in Insulin Resistance-associated Hepatic Iron Overload Patients</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>SAINPOS</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Immediate Effect of Cervical Posterior Muscles' and Gluteus Medius Muscle's Vibrations on Gait in Chronic Vascular Hemiplegia</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>VIBR-AVC</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT01045525</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT01572818</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Prospective Randomized Study Comparing the Effect of Phlebotomy and Lifestyle and Diet Advices vs Lifestyle and Diet Advices Only on Glycemia in Patients With Dysmetabolic Liversiderosis</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>SAIGNEES</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
+          <t>Effects of Phlebotomy on Insulin Sensitivity in Insulin Resistance-associated Hepatic Iron Overload Patients</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>SAINPOS</t>
+        </is>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1640,70 +1805,80 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT02067455</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT01045525</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>This is a Non-randomized, Single-center, Prospective Investigation on Exercise Capacities of Left Ventricular Assist Devices Recipients</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>REVADE</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
+          <t>Prospective Randomized Study Comparing the Effect of Phlebotomy and Lifestyle and Diet Advices vs Lifestyle and Diet Advices Only on Glycemia in Patients With Dysmetabolic Liversiderosis</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>SAIGNEES</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT01673230</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT01039090</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Hemodynamic Indices Predictive of a Beneficial Response to Fluid Expansion in Case of Hemodynamic Failure After Cardiac Surgery With Altered Preoperative Ejection Fraction (LVEF≤45%): Sensibility and Specificity of Respiratory Variations of Pulse Pressure (∆PP), Photoplethysmography (∆POP), Perfusion Index (PVI), Before and After Fluid Expansion.</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ALTERVOL</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Prospective, Randomised, Comparative Study Comparing Efficacy of Continuous Apomorphine Infusion Versus Usual Dopaminergic Per os Treatment on Cognitive and Neuropsychological Functions in Parkinson's Disease: a Clinical and PET-scan Study</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>APO-TEP</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1714,32 +1889,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT02096367</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02060578</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Immediate Effect of Cervical Posterior Muscles' and Gluteus Medius Muscle's Vibrations on Gait in Chronic Vascular Hemiplegia</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VIBR-AVC</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>DELI-DEVI : Determinants of End-of-life Place of Care for Children Suffering From Cancer.</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>DELI-DEVI</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1751,32 +1931,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT02140918</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT02018484</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Hemodynamic and Biological Effects of 3 Increasing Doses of Fludrocortisone in Healthy Volunteers</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>AFLUCO4</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Positioning of the Tibial Cut in Unicompartmental Medial Knee Replacement by Using Patient Specific Cutting Guides.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>PSI-PUC</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1788,32 +1973,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT03274843</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT02350556</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Evaluation of the Improvement of Independence by the Resumption of a Significant Activity Such as a Cooking Workshop in Adult Patients With Stroke Benefiting From Traditional Rehabilitation</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>EVIC-AVC</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Interest of Evaluating the Movement of the Center of Mass in a Dynamic Avoidance Task as the Endpoint of the Dynamic Equilibrium of Hemiplegic Patients</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>EQHEM</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1825,32 +2015,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT00925691</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT02357407</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Comparison of SEPTal and Apical Pacing Sites in PerManent Right Ventricular Pacing</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>SEPTAL-PM</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Development of an Adjustment Assistance Tool Dosage of Fluoroquinolones in a Population Pharmacokinetic Model</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>FLUO-POP</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1862,33 +2057,38 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT01743703</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT03274843</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Utility of Whole-body MRI (STIR and Diffusion Weighted) in the Detection of Traumatic Injuries of Undetermined Origin in Children</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PEDIMA</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Evaluation of the Improvement of Independence by the Resumption of a Significant Activity Such as a Cooking Workshop in Adult Patients With Stroke Benefiting From Traditional Rehabilitation</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>EVIC-AVC</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1899,69 +2099,79 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>NCT01738516</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Contribution of High Resolution EEG Functional Connectivity Measures to Presurgical Evaluation of Patients With Intractable Epilepsy</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>conneXion</t>
         </is>
       </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
       <c r="H41" t="b">
         <v>1</v>
       </c>
       <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT02112331</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT01743703</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Influence of Physical Treatments of Human Milk on the Kinetics of Gastric Lipolysis in Preterm Newborns</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ARCHILACT</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
+          <t>Utility of Whole-body MRI (STIR and Diffusion Weighted) in the Detection of Traumatic Injuries of Undetermined Origin in Children</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>PEDIMA</t>
+        </is>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1973,70 +2183,80 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02357407</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT02140918</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Development of an Adjustment Assistance Tool Dosage of Fluoroquinolones in a Population Pharmacokinetic Model</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FLUO-POP</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+          <t>Hemodynamic and Biological Effects of 3 Increasing Doses of Fludrocortisone in Healthy Volunteers</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>AFLUCO4</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT02018484</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02112331</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Positioning of the Tibial Cut in Unicompartmental Medial Knee Replacement by Using Patient Specific Cutting Guides.</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>PSI-PUC</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Influence of Physical Treatments of Human Milk on the Kinetics of Gastric Lipolysis in Preterm Newborns</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ARCHILACT</t>
+        </is>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2047,144 +2267,164 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT02350556</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT00925691</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Interest of Evaluating the Movement of the Center of Mass in a Dynamic Avoidance Task as the Endpoint of the Dynamic Equilibrium of Hemiplegic Patients</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>EQHEM</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Comparison of SEPTal and Apical Pacing Sites in PerManent Right Ventricular Pacing</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>SEPTAL-PM</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT00287105</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT01569724</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>An Open-label, Phase II Study to Explore the Safety and Efficacy of Imatinib With Chemotherapy in Pediatric Patients With Ph+ / BCR-ABL+ Acute Lymphoblastic Leukemia (Ph+ALL)</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ESPHALL</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Estimation of Carbohydrate Metabolism Disorder Frequency in Hypertriglyceridemia Induced by Bexarotene Treatment of Cutaneous T Cell Lymphoma - Pilote Study</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>TgBEX</t>
+        </is>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT02125110</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT02131909</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Effect of Prenatal Exposure to Neurotoxicants on the Developing Brain: an MRI Study</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>PERINE</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>PC MIROIR : Effects of Mirror Therapy in Children With Hemiplegic Cerebral Palsy</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>PC MIROIR</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
       <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT03651960</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT00287105</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Mobile and Interactive Robot's Social Acceptability for Balance and Gait</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ROBO-K</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>An Open-label, Phase II Study to Explore the Safety and Efficacy of Imatinib With Chemotherapy in Pediatric Patients With Ph+ / BCR-ABL+ Acute Lymphoblastic Leukemia (Ph+ALL)</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ESPHALL</t>
+        </is>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2195,69 +2435,79 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>NCT02099214</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Estimation of Myocardial Iron Overload by 3 Tesla MRI and Cardiac Functional Consequences in Patients With HFE Hereditary Haemochromatosis. Pilot Study</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>HEMOCOEUR</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT02131909</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT02125110</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>PC MIROIR : Effects of Mirror Therapy in Children With Hemiplegic Cerebral Palsy</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>PC MIROIR</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
+          <t>Effect of Prenatal Exposure to Neurotoxicants on the Developing Brain: an MRI Study</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PERINE</t>
+        </is>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2269,69 +2519,79 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT02492529</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT01677078</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Knowing and Remembering: Cognitive and Neural Influences of Familiarity on Recognition Memory in Early Alzheimer's Disease</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>EPMR-MA</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
+          <t>Assessment of the Neuronavigation System Coupled With Repetitive Transcranial Magnetic Stimulation. A Randomized Double Blind Study</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>TMS</t>
+        </is>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT02662322</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT02492529</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Effect of Language and Confusion on Pain During Peripheral Intravenous</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>KTHYPE</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Knowing and Remembering: Cognitive and Neural Influences of Familiarity on Recognition Memory in Early Alzheimer's Disease</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>EPMR-MA</t>
+        </is>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2343,70 +2603,80 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>NCT01789008</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Interest of Transient Elastography in the Determination of Advanced Fibrosis in Alcoholic Liver Didease in Alcoholic Patients in Weaning.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>FIBR-OH</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
       <c r="H53" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT01569724</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT02662322</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Estimation of Carbohydrate Metabolism Disorder Frequency in Hypertriglyceridemia Induced by Bexarotene Treatment of Cutaneous T Cell Lymphoma - Pilote Study</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TgBEX</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Effect of Language and Confusion on Pain During Peripheral Intravenous</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>KTHYPE</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2417,139 +2687,159 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT01677078</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT03651960</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Assessment of the Neuronavigation System Coupled With Repetitive Transcranial Magnetic Stimulation. A Randomized Double Blind Study</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TMS</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
+          <t>Mobile and Interactive Robot's Social Acceptability for Balance and Gait</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ROBO-K</t>
+        </is>
       </c>
       <c r="H55" t="b">
         <v>0</v>
       </c>
       <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT01282593</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT01388387</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Potential Role of CD9 and Implication of Motility Process in Pathogenesis of TEL/ALM1-positive ALL Relapses (LAL TEL/ALM1 and CD9).</t>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>LAL TEL/ALM1</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
+          <t>Impact of Donor and Recipient CYP3A5 Genetic Polymorphism on Tacrolimus Exposure in Patients With Hepatic Transplant</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT01388387</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT01148069</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Impact of Donor and Recipient CYP3A5 Genetic Polymorphism on Tacrolimus Exposure in Patients With Hepatic Transplant</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="b">
-        <v>0</v>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Surgery Combined With IMRT-IGRT in Locally-advanced Prostate Cancers</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>TARGET</t>
+        </is>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT02041169</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02594956</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Lower Extremity Peripheral Arterial Disease and Exercise Ischemia: Walking Capacity Variability, Pain Evolution and Pathophysiological Responses. The CLASH Study.</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>CLASH</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
+          <t>Impact of the Absence of Nasogastric Decompression After Pancreaticoduodenectomy : A Prospective and Randomized Study</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>IPOD</t>
+        </is>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2561,70 +2851,80 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT02465970</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT02857205</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>BRAINSTIM : Effects of Transcranial Direct Current Stimulation (TDCS) in Drug-resistant Partial Epilepsy</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>BRAINSTIM</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>MICROPRUNG : Intestinal Microbiota Analysis in Patients With or Without Hirschsprung's Associated EnteroColitis</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MICROPRUNG</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT01973478</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT01282593</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Deep Brain Stimulation in Patients With Chronic Treatment Resistant Depression</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>STHYM</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Potential Role of CD9 and Implication of Motility Process in Pathogenesis of TEL/ALM1-positive ALL Relapses (LAL TEL/ALM1 and CD9).</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>LAL TEL/ALM1</t>
+        </is>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2635,28 +2935,37 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT01949467</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT01973478</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Prospective, Comparative (5 Groups), Non-randomized, Multicenter, Physiopathological Study, Evaluating Pharmacokinetic Characteristics of Serum Hepcidin Level in Response to Iron Oral Intake in Order to Evaluate Their Interest to Discriminate Patients With Dysmetabolic Hepatosiderosis or Ferroportin Disease.</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="b">
-        <v>0</v>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Deep Brain Stimulation in Patients With Chronic Treatment Resistant Depression</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>STHYM</t>
+        </is>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
       <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2668,218 +2977,248 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>NCT03484052</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Place of Jugular Ultrasound in the Evaluation of the Volemia by a Clinician Doctor in Routine Care (JUVIA)</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>JUVIA</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT03174327</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT02990195</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Evaluation of Hepatic Rigidity by Ultrasonic Impulse Elastography in Liver Transplant Patients (SUPERSONIC)</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SUPERSONIC</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
+          <t>Restoring the Beneficial Effects of Enterohepatic Bile Salt Signalling by Chyme Reinfusion in Patients With a Double Enterostomy</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>RESCUE</t>
+        </is>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NCT02990195</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>NCT02528032</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Restoring the Beneficial Effects of Enterohepatic Bile Salt Signalling by Chyme Reinfusion in Patients With a Double Enterostomy</t>
-        </is>
-      </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>RESCUE</t>
-        </is>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
+          <t>Revisit the Value of Imaging in Best Using CArdiac Resynchronization Therapy</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>RICART</t>
+        </is>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT02594956</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT02753387</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Impact of the Absence of Nasogastric Decompression After Pancreaticoduodenectomy : A Prospective and Randomized Study</t>
-        </is>
-      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>IPOD</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
+          <t>Effect of Oral Preparation on Bacterial Colonization of the Pharyngeal Mucosa in Surgery of Head and Neck Cancer</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ORAL-ISO</t>
+        </is>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT01148069</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT03174327</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Surgery Combined With IMRT-IGRT in Locally-advanced Prostate Cancers</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TARGET</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Evaluation of Hepatic Rigidity by Ultrasonic Impulse Elastography in Liver Transplant Patients (SUPERSONIC)</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>SUPERSONIC</t>
+        </is>
       </c>
       <c r="H66" t="b">
         <v>0</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT02528032</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT02465970</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Revisit the Value of Imaging in Best Using CArdiac Resynchronization Therapy</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>RICART</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
+          <t>BRAINSTIM : Effects of Transcranial Direct Current Stimulation (TDCS) in Drug-resistant Partial Epilepsy</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>BRAINSTIM</t>
+        </is>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2890,32 +3229,33 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT02753387</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT01949467</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Effect of Oral Preparation on Bacterial Colonization of the Pharyngeal Mucosa in Surgery of Head and Neck Cancer</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ORAL-ISO</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
+          <t>Prospective, Comparative (5 Groups), Non-randomized, Multicenter, Physiopathological Study, Evaluating Pharmacokinetic Characteristics of Serum Hepcidin Level in Response to Iron Oral Intake in Order to Evaluate Their Interest to Discriminate Patients With Dysmetabolic Hepatosiderosis or Ferroportin Disease.</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2927,107 +3267,122 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>NCT02398474</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Intérêt du TFP (Transversalis Fascia Plane) Bloc échoguidé Pour l'analgésie du prélèvement Osseux de crête Iliaque</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>TFP</t>
         </is>
       </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
       <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT02857205</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT02041169</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>MICROPRUNG : Intestinal Microbiota Analysis in Patients With or Without Hirschsprung's Associated EnteroColitis</t>
-        </is>
-      </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MICROPRUNG</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
+          <t>Lower Extremity Peripheral Arterial Disease and Exercise Ischemia: Walking Capacity Variability, Pain Evolution and Pathophysiological Responses. The CLASH Study.</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>CLASH</t>
+        </is>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT03376074</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT03279913</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Interest of Oxygenated Hypothermic Perfusion in Preservation of Hepatic Grafts From Expanded Criteria Donors. A Prospective Monocentric Study.</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PERPHO</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>NEUROFEEDSTIM : Therapeutic Use of Neurofeedback in Depression in Association With TMS</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NEUROFEEDSTIM</t>
+        </is>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3038,70 +3393,81 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT03267927</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
+          <t>2016-001413-24</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Management of Obstructive Sleep Apnea (OSA) in Children and Maxillary and Mandibular Development</t>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SAOS</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
+          <t>Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure. 
+ Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure.</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>TAP ALIF</t>
+        </is>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
       <c r="I72" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT02400047</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT01677091</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Dexamethasone, Can it Replace Ketoprofen in the Strategy of Intraoperative Multimodal Analgesia in Paediatric Surgery ? A Prospective Randomized Double-blinded Study. DEXA OP</t>
-        </is>
-      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DEXA OP</t>
-        </is>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
+          <t>Effectiveness of a Balance Rehabilitation Program With Sensory Recalibration After Stroke: A Randomized Controlled Trial.</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>AVCPOSTIM</t>
+        </is>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3112,70 +3478,80 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NCT02361450</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NCT03828968</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Retrograde Colonic Irrigation to Manage Spina Bifida Functional Digestive Sequelae: a Multicenter, Prospective, Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>IRRICO</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>Chronic Urinary Retention in Elderly Living in Homes for the Aged : Benefits of Bladder Scan Screening</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>RUC EHPAD</t>
+        </is>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT03076489</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT03267927</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Hed-O-Shift: Hedonic and Neurocognitive Processes in Relation to Dietary Habits and Weight Status</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hed-O-Shift</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
+          <t>Management of Obstructive Sleep Apnea (OSA) in Children and Maxillary and Mandibular Development</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>SAOS</t>
+        </is>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -3186,70 +3562,80 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>NCT03818750</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Impact of Marketing of Alcohol Products on Young People</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>IMAJ</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
       <c r="H76" t="b">
         <v>0</v>
       </c>
       <c r="I76" t="b">
+        <v>0</v>
+      </c>
+      <c r="J76" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT01810965</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT03076489</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Impact of Bloodletting on Iron Metabolism in Type 1 Hemochromatosis: Pathophysiological and Clinical Implications. Pilot Study.</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SAIFER</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>Hed-O-Shift: Hedonic and Neurocognitive Processes in Relation to Dietary Habits and Weight Status</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hed-O-Shift</t>
+        </is>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3260,32 +3646,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT03828968</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT04079244</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Chronic Urinary Retention in Elderly Living in Homes for the Aged : Benefits of Bladder Scan Screening</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>RUC EHPAD</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>Analysis of the Link Between Flow State and Preoperative Anxiety in Children Undergoing Playful Distraction - Studying the Benefits of Digital Distractions in an Ambulatory Care Service</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ALFA</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3297,32 +3688,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT03673189</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT03046199</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Sensors for HEalth Recording and Physical Activity Monitoring</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SHERPAM</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
+          <t>Detection of COPD in Primary Care</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>DISCO</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>1</v>
       </c>
       <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3334,70 +3730,80 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT03638921</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT01810965</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>35RC17_8826_NEPHROPAIN Phase APRES : Interest of the Equimolar Oxygen Nitride Mixture (MEOPA) in the Treatment of Pain in Patients Presenting to the Emergency Department for Suspected Renal Colic: a Study BEFORE AFTER</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>NEPHROPAIN</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Impact of Bloodletting on Iron Metabolism in Type 1 Hemochromatosis: Pathophysiological and Clinical Implications. Pilot Study.</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>SAIFER</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT01677091</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT02400047</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Effectiveness of a Balance Rehabilitation Program With Sensory Recalibration After Stroke: A Randomized Controlled Trial.</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>AVCPOSTIM</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
+          <t>Dexamethasone, Can it Replace Ketoprofen in the Strategy of Intraoperative Multimodal Analgesia in Paediatric Surgery ? A Prospective Randomized Double-blinded Study. DEXA OP</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>DEXA OP</t>
+        </is>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3408,32 +3814,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT02966847</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT03376074</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Assessment of Cone-beam Computed Tomography (CBCT) Assistance to Video-assisted Thoracoscopic Surgery</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>CAVIT</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>Interest of Oxygenated Hypothermic Perfusion in Preservation of Hepatic Grafts From Expanded Criteria Donors. A Prospective Monocentric Study.</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>PERPHO</t>
+        </is>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3445,106 +3856,121 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT02884440</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT03638921</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Transverse Abdominis Plane Block for Anterior Approach Spine Surgery: A Prospective Randomized Study</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>TAP ALIF</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>35RC17_8826_NEPHROPAIN Phase APRES : Interest of the Equimolar Oxygen Nitride Mixture (MEOPA) in the Treatment of Pain in Patients Presenting to the Emergency Department for Suspected Renal Colic: a Study BEFORE AFTER</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NEPHROPAIN</t>
+        </is>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NCT04079244</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>NCT03673189</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Analysis of the Link Between Flow State and Preoperative Anxiety in Children Undergoing Playful Distraction - Studying the Benefits of Digital Distractions in an Ambulatory Care Service</t>
-        </is>
-      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ALFA</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>Sensors for HEalth Recording and Physical Activity Monitoring</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>SHERPAM</t>
+        </is>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT03046199</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT02361450</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Detection of COPD in Primary Care</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>DISCO</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
+          <t>Retrograde Colonic Irrigation to Manage Spina Bifida Functional Digestive Sequelae: a Multicenter, Prospective, Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>IRRICO</t>
+        </is>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3554,484 +3980,548 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2016-001413-24</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
+          <t>NCT02884440</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure. 
- Intérêt du TAP (Transverse Abdominis Plane) bloc bilatéral échoguidé pour l’analgésie post opératoire des chirurgies rachidiennes par voie antérieure.</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>Transverse Abdominis Plane Block for Anterior Approach Spine Surgery: A Prospective Randomized Study</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>TAP ALIF</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT03279913</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT02966847</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>NEUROFEEDSTIM : Therapeutic Use of Neurofeedback in Depression in Association With TMS</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>NEUROFEEDSTIM</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Assessment of Cone-beam Computed Tomography (CBCT) Assistance to Video-assisted Thoracoscopic Surgery</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>CAVIT</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT04416308</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT03110094</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>COVID 19 : Seroprevalence Study of Anti SRAS-CoV-2 Antibodies in GHT Employees in Haute Bretagne</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>AntiCoV-HB</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
+          <t>Investigation of Immunological and Pharmacological Factors for Response to Adalimumab in Rheumatoid Arthritis, With Analysis of CD4 + Follicular Helper T Subpopulations</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>PROMETHEE</t>
+        </is>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NCT02802397</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NCT03200457</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>AROPE : Early Ovarian Reserve Decreased : Impact of Exposure to Persistent Endocrine Disruptors and Organic Solvents</t>
-        </is>
-      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>AROPE</t>
-        </is>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
+          <t>Comparison of the Variability of Hepatic Load Quantification in Iron and Fat Estimated by MRI at 1.5 and 3 Tesla</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>HEMOCOMPARE</t>
+        </is>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NCT02599493</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NCT02822144</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>EVRIOS : Comparative Evaluation of Low Versus High Doses of Rifampicin in the Treatment of Staphylococcal Bone and Joint Infections</t>
-        </is>
-      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>EVRIOS</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
+          <t>General Anesthesia Versus Sedation During Intra-arterial Treatment for Stroke</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>GASS</t>
+        </is>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NCT03200457</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NCT02650609</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>2015-000927-96</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Comparison of the Variability of Hepatic Load Quantification in Iron and Fat Estimated by MRI at 1.5 and 3 Tesla</t>
-        </is>
-      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>HEMOCOMPARE</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
+          <t>Treatment of Chronic Subdural Hematoma by Corticosteroids</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>SUCRE</t>
+        </is>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NCT01613638</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>NCT02864017</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Congenital Malformations and Intrauterine Pollutants Exposure (Alcohol, Solvents and Pesticides) in Brittany. Population Based Case-control Study Short Title : Malformations and Environment Acronym : PENEW for "Pregnancy Environment and Newborn Malformations"</t>
-        </is>
-      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>PENEW</t>
-        </is>
-      </c>
-      <c r="G92" t="b">
-        <v>1</v>
+          <t>Immuno Nutrition by L-citrulline for Critically Ill Patients</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Immunocitre</t>
+        </is>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>NCT02470247</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>NCT03942432</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>IPC-Angio Trial : Interest of Remote Ischemic Preconditioning for Prevention of Contrast Medium-induced Nephropathy (Post-diagnostic Imaging) in Patients at High Risk of Contrast-induced Nephropathy</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>IPC-Angio</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
+          <t>A Prospective, Mono-center, Interventional Study Evaluating the Effect of One Year Initial Care by Hygieno-dietary Advices With or Without Phlebotomy on Glycemia After at Least 5 Years in Patients With Dysmetabolic Iron Overload Syndrome</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>EvoHSD</t>
+        </is>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT03942432</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>NCT01613638</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>A Prospective, Mono-center, Interventional Study Evaluating the Effect of One Year Initial Care by Hygieno-dietary Advices With or Without Phlebotomy on Glycemia After at Least 5 Years in Patients With Dysmetabolic Iron Overload Syndrome</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>EvoHSD</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+          <t>Congenital Malformations and Intrauterine Pollutants Exposure (Alcohol, Solvents and Pesticides) in Brittany. Population Based Case-control Study Short Title : Malformations and Environment Acronym : PENEW for "Pregnancy Environment and Newborn Malformations"</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>PENEW</t>
+        </is>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT02937285</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT02802397</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>National Multicenter, Controlled, Single-blind Study With Two Parallel Groups Evaluating the Safety and Efficacy of Sequential Treatment With Mitoxantrone and Interferon Beta-1a (REBIF 44mg 3 Times / Week) Versus Interferon Alone in Patients With Strong Risk of Progression in the Initial Phase of Multiple Sclerosis</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>MITOX-REBIF</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>AROPE : Early Ovarian Reserve Decreased : Impact of Exposure to Persistent Endocrine Disruptors and Organic Solvents</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>AROPE</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT02650609</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2015-000927-96</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
+          <t>NCT04455308</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Treatment of Chronic Subdural Hematoma by Corticosteroids</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>SUCRE</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
+          <t>Chilblains, COVID-19 and Lockdown: Epidemiologic Study</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>ECCES</t>
+        </is>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>1</v>
+      </c>
+      <c r="J96" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCT03110094</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NCT02212483</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Investigation of Immunological and Pharmacological Factors for Response to Adalimumab in Rheumatoid Arthritis, With Analysis of CD4 + Follicular Helper T Subpopulations</t>
-        </is>
-      </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>PROMETHEE</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+          <t>Clinical Effectiveness and Economical Impact of Medical Indoor Environment Counselors Visiting Homes of Asthma Patients (ECENVIR Study)</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>ECENVIR</t>
+        </is>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J97" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT02864017</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT04416308</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Immuno Nutrition by L-citrulline for Critically Ill Patients</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Immunocitre</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>COVID 19 : Seroprevalence Study of Anti SRAS-CoV-2 Antibodies in GHT Employees in Haute Bretagne</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>AntiCoV-HB</t>
+        </is>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -4042,218 +4532,248 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT02212483</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT02470247</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Clinical Effectiveness and Economical Impact of Medical Indoor Environment Counselors Visiting Homes of Asthma Patients (ECENVIR Study)</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ECENVIR</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>1</v>
+          <t>IPC-Angio Trial : Interest of Remote Ischemic Preconditioning for Prevention of Contrast Medium-induced Nephropathy (Post-diagnostic Imaging) in Patients at High Risk of Contrast-induced Nephropathy</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>IPC-Angio</t>
+        </is>
       </c>
       <c r="H99" t="b">
         <v>1</v>
       </c>
       <c r="I99" t="b">
+        <v>1</v>
+      </c>
+      <c r="J99" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCT04455308</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NCT02599493</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Chilblains, COVID-19 and Lockdown: Epidemiologic Study</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ECCES</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
+          <t>EVRIOS : Comparative Evaluation of Low Versus High Doses of Rifampicin in the Treatment of Staphylococcal Bone and Joint Infections</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>EVRIOS</t>
+        </is>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>NCT02822144</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NCT02937285</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>General Anesthesia Versus Sedation During Intra-arterial Treatment for Stroke</t>
-        </is>
-      </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>GASS</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
+          <t>National Multicenter, Controlled, Single-blind Study With Two Parallel Groups Evaluating the Safety and Efficacy of Sequential Treatment With Mitoxantrone and Interferon Beta-1a (REBIF 44mg 3 Times / Week) Versus Interferon Alone in Patients With Strong Risk of Progression in the Initial Phase of Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>MITOX-REBIF</t>
+        </is>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NCT04742465</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>NCT03372174</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>ARIADE : Augmented Reality for Improving Autonomy in Dementia. Creation, Implementation and Testing of an Augmented Reality Tool to Help People With Alzheimer's Type Dementia in Their Travels.</t>
-        </is>
-      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ARIADE</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
+          <t>Beneficial Effects on Maintaining Mechanical Ventilation During Cardiopulmonary Bypass for Cardiac Surgery on Postoperative Infections</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>VECAR</t>
+        </is>
       </c>
       <c r="H102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NCT04404426</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NCT04235972</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>CACOLAC : Randomized Trial of Citrulline Administration in the Hospital Patient in Intensive Care for COVID-19 Acute Respiratory Distress Syndrome</t>
-        </is>
-      </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CACOLAC</t>
-        </is>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
+          <t>Evaluation of Staple Watson Wrist Arthrodesis</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>ESWWA</t>
+        </is>
       </c>
       <c r="H103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCT04235972</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NCT05891522</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Evaluation of Staple Watson Wrist Arthrodesis</t>
-        </is>
-      </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ESWWA</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
+          <t>Pilot Study of the Use of a Portable Cranial Scanner in Intensive Care for Cerebro-injured Patients</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>ESPER</t>
+        </is>
       </c>
       <c r="H104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4262,18 +4782,443 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>NCT04404426</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>CACOLAC : Randomized Trial of Citrulline Administration in the Hospital Patient in Intensive Care for COVID-19 Acute Respiratory Distress Syndrome</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>CACOLAC</t>
+        </is>
+      </c>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NCT02900339</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MRI Sequences Optimization in Healthy Subjects</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>OSS-IRM</t>
+        </is>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NCT03454711</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Functional Magnetic Resonance Imaging (fMRI) Exploration of Neurocognitive Processes Involved in Food Addiction (FA) in Obese Patients: Towards New Phenotypic Markers for an Optimized Care Pathway</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>AddictO</t>
+        </is>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>🟧</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>NCT04742465</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ARIADE : Augmented Reality for Improving Autonomy in Dementia. Creation, Implementation and Testing of an Augmented Reality Tool to Help People With Alzheimer's Type Dementia in Their Travels.</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>ARIADE</t>
+        </is>
+      </c>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
+      </c>
+      <c r="J108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>NCT04771091</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Correlation Between Head Perineum Distance Measured by Trans-périneal Ultrasound and Delivery Mode in Patient in the Second Stage of Labor</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>EchoPé</t>
+        </is>
+      </c>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>NCT04473742</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Effects of Silica and Asbestos Fibres on the Efferocytosis Capacities of Macrophages</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>MacFibOsis</t>
+        </is>
+      </c>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>🟩</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NCT04373200</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Human Ab Response &amp; immunoMONItoring of COVID-19 Patients</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>HARMONICOV</t>
+        </is>
+      </c>
+      <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>🟩</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>NCT03030170</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Does the Strengthening of the Pancreas in Distal Pancreatectomy Using Endo GIA Reload Reinforced Reduce the Occurrence of Pancreatic Fistula? Multicenter Randomized Prospective Open Study</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>REPLAY</t>
+        </is>
+      </c>
+      <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>NCT03396770</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Impact of the Early Hemodynamic Evaluation Guided by Urinary Biomarkers on the Acute Kidney Injury After Cardiac Surgery</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>NEPHROCAR</t>
+        </is>
+      </c>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>NCT03140644</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>SARCOLOWDOSE : Ultra-low Dose CT Scan and MRI in Thoracic Sarcoidosis</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>SARCOLOWDOSE</t>
+        </is>
+      </c>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>2017-002842-60</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>Randomised phase III study testing nivolumab and ipilimumab versus a  carboplatin based doublet in first line treatment of PS 2 or elderly (more@@ -4282,389 +5227,19 @@
  ipilimumab versus un doublet à base de carboplatine dans le traitement de première ligne du CBNPC chez des patients PS 2 ou de plus de 70 ans</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Lena eNERGY 
  Lena eNERGY</t>
         </is>
       </c>
-      <c r="G105" t="b">
-        <v>0</v>
-      </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>NCT03372174</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Beneficial Effects on Maintaining Mechanical Ventilation During Cardiopulmonary Bypass for Cardiac Surgery on Postoperative Infections</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>VECAR</t>
-        </is>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>NCT03454711</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Functional Magnetic Resonance Imaging (fMRI) Exploration of Neurocognitive Processes Involved in Food Addiction (FA) in Obese Patients: Towards New Phenotypic Markers for an Optimized Care Pathway</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>AddictO</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>NCT04473742</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Effects of Silica and Asbestos Fibres on the Efferocytosis Capacities of Macrophages</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>MacFibOsis</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>NCT02900339</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>MRI Sequences Optimization in Healthy Subjects</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>OSS-IRM</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>🟩</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>NCT03030170</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Does the Strengthening of the Pancreas in Distal Pancreatectomy Using Endo GIA Reload Reinforced Reduce the Occurrence of Pancreatic Fistula? Multicenter Randomized Prospective Open Study</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>REPLAY</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="b">
-        <v>1</v>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>🟩</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>NCT04373200</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Human Ab Response &amp; immunoMONItoring of COVID-19 Patients</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>HARMONICOV</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="b">
-        <v>1</v>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>NCT04771091</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Correlation Between Head Perineum Distance Measured by Trans-périneal Ultrasound and Delivery Mode in Patient in the Second Stage of Labor</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>EchoPé</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>NCT05891522</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Pilot Study of the Use of a Portable Cranial Scanner in Intensive Care for Cerebro-injured Patients</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>ESPER</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>NCT03396770</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Impact of the Early Hemodynamic Evaluation Guided by Urinary Biomarkers on the Acute Kidney Injury After Cardiac Surgery</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>NEPHROCAR</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>NCT03140644</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>SARCOLOWDOSE : Ultra-low Dose CT Scan and MRI in Thoracic Sarcoidosis</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>SARCOLOWDOSE</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>0</v>
-      </c>
       <c r="H115" t="b">
         <v>0</v>
       </c>
       <c r="I115" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4676,32 +5251,37 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NCT03570385</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NCT04211220</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Can Diffusion Tensor Imaging (DTI) of the Optic Ways Contributes to Predict the 6 Months Prognosis of Optic Neuritis (ON)?</t>
-        </is>
-      </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>DTI et NOI</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
+          <t>Clinical Evaluation of Insulin Real-Time Advisor (IRTA©): a Decision Support Software for Insulin Therapy Combined With Freestyle Libre®, a Continuous Glucose Monitoring System: Glycemic Impact and Satisfaction in Type 1 Diabetic Patients</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>IRTA</t>
+        </is>
       </c>
       <c r="H116" t="b">
         <v>0</v>
       </c>
       <c r="I116" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4713,32 +5293,37 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>NCT04539899</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>Evaluation of the Influence of the Virtual Reality Helmet on Pain During IUD Insertion : REAVIST</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>REAVIST</t>
         </is>
       </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
       <c r="H117" t="b">
         <v>0</v>
       </c>
       <c r="I117" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4750,32 +5335,37 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NCT03805997</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>NCT03291977</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Does a Diet With the Recommended Amount of Polyunsaturated Fatty Acids, Increase Their Proportion in Maternal Milk? A Prospective Randomized Open Study</t>
-        </is>
-      </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ALLAITEMENT</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
+          <t>Interest of Fluorescein in Fluorescence-guided Resection of Gliomas: A Randomized Study</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>FLEGME</t>
+        </is>
       </c>
       <c r="H118" t="b">
         <v>0</v>
       </c>
       <c r="I118" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4787,32 +5377,33 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NCT04001556</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NCT04624347</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>RElevance of UltraSonography for Assessing Salivary Gland Involvement in Systemic Sclerosis (SSc)</t>
-        </is>
-      </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>REUSSI-SSc</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
+          <t>NEOVIDEO : Impact of Monitoring Motor Activity by Video Analysis on the Sleep of Very Preterm Infants</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="b">
         <v>0</v>
       </c>
       <c r="I119" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4824,32 +5415,37 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>NCT04129333</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>NCT03351361</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>HYPIC Hypnosis for Procedural Pain in the Intensive Care Unit</t>
-        </is>
-      </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>HYPIC</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
+          <t>Randomized Phase III Study Testing Nivolumab and Ipilimumab Versus a Carboplatin Based Doublet in First Line Treatment of PS 2 or Elderly (More Than 70 Years Old) Patients With Advanced Non-small Cell Lung Cancer</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>eNERGY</t>
+        </is>
       </c>
       <c r="H120" t="b">
         <v>0</v>
       </c>
       <c r="I120" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4861,32 +5457,37 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NCT03291977</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NCT03570385</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Interest of Fluorescein in Fluorescence-guided Resection of Gliomas: A Randomized Study</t>
-        </is>
-      </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>FLEGME</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
+          <t>Can Diffusion Tensor Imaging (DTI) of the Optic Ways Contributes to Predict the 6 Months Prognosis of Optic Neuritis (ON)?</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>DTI et NOI</t>
+        </is>
       </c>
       <c r="H121" t="b">
         <v>0</v>
       </c>
       <c r="I121" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4898,28 +5499,37 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NCT04624347</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>NCT04001556</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>NEOVIDEO : Impact of Monitoring Motor Activity by Video Analysis on the Sleep of Very Preterm Infants</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="b">
-        <v>0</v>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>RElevance of UltraSonography for Assessing Salivary Gland Involvement in Systemic Sclerosis (SSc)</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>REUSSI-SSc</t>
+        </is>
       </c>
       <c r="H122" t="b">
         <v>0</v>
       </c>
       <c r="I122" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4931,32 +5541,37 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NCT03351361</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NCT04129333</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Randomized Phase III Study Testing Nivolumab and Ipilimumab Versus a Carboplatin Based Doublet in First Line Treatment of PS 2 or Elderly (More Than 70 Years Old) Patients With Advanced Non-small Cell Lung Cancer</t>
-        </is>
-      </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>eNERGY</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
+          <t>HYPIC Hypnosis for Procedural Pain in the Intensive Care Unit</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>HYPIC</t>
+        </is>
       </c>
       <c r="H123" t="b">
         <v>0</v>
       </c>
       <c r="I123" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4968,107 +5583,122 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NCT04211220</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>NCT03693872</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Clinical Evaluation of Insulin Real-Time Advisor (IRTA©): a Decision Support Software for Insulin Therapy Combined With Freestyle Libre®, a Continuous Glucose Monitoring System: Glycemic Impact and Satisfaction in Type 1 Diabetic Patients</t>
-        </is>
-      </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>IRTA</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
+          <t>Evaluation of the Nonmotor Symptomatology of Parkinsonian Patients Treated With Two Strategies Related to Apomorphine Pump Therapy in French Hospitals</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>AGAPO</t>
+        </is>
       </c>
       <c r="H124" t="b">
         <v>0</v>
       </c>
       <c r="I124" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>NCT03795103</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>NCT03805997</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Effect of a Neuromuscular Electrical Stimulation Program on Walking Capacity in Peripheral Artery Disease Patients: a Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ELECTROPAD</t>
-        </is>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
+          <t>Does a Diet With the Recommended Amount of Polyunsaturated Fatty Acids, Increase Their Proportion in Maternal Milk? A Prospective Randomized Open Study</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>ALLAITEMENT</t>
+        </is>
       </c>
       <c r="H125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J125" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NCT03693872</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NCT03795103</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Evaluation of the Nonmotor Symptomatology of Parkinsonian Patients Treated With Two Strategies Related to Apomorphine Pump Therapy in French Hospitals</t>
-        </is>
-      </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>AGAPO</t>
-        </is>
-      </c>
-      <c r="G126" t="b">
-        <v>0</v>
+          <t>Effect of a Neuromuscular Electrical Stimulation Program on Walking Capacity in Peripheral Artery Disease Patients: a Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>ELECTROPAD</t>
+        </is>
       </c>
       <c r="H126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5079,32 +5709,37 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NCT03481686</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NCT05234216</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>SelfEPO - Therapeutic Education of Chronic Renal or Renal Transplant Patient in the Management of EPO Injections</t>
-        </is>
-      </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>SELFEPO</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
+          <t>Comparison of a Comfort Scale and a Numerical Pain Scale on Opioid Consumption After Surgery: The COMFORT Randomized Trial</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>COMFORT</t>
+        </is>
       </c>
       <c r="H127" t="b">
         <v>0</v>
       </c>
       <c r="I127" t="b">
+        <v>0</v>
+      </c>
+      <c r="J127" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5114,35 +5749,40 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="inlineStr">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
         <is>
           <t>2021-000987-31</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>Immunomonitoring and multiple myeloma: impact of lenalidomide on immune checkpoint expression 
  Immunomonitoring et myélome multiple: impact du lénalidomide sur l'expression des immune checkpoint</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>IMMUNO-MYELO</t>
         </is>
       </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
       <c r="H128" t="b">
         <v>0</v>
       </c>
       <c r="I128" t="b">
+        <v>0</v>
+      </c>
+      <c r="J128" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5154,32 +5794,37 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NCT05234216</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>NCT03481686</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Comparison of a Comfort Scale and a Numerical Pain Scale on Opioid Consumption After Surgery: The COMFORT Randomized Trial</t>
-        </is>
-      </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>COMFORT</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>0</v>
+          <t>SelfEPO - Therapeutic Education of Chronic Renal or Renal Transplant Patient in the Management of EPO Injections</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>SELFEPO</t>
+        </is>
       </c>
       <c r="H129" t="b">
         <v>0</v>
       </c>
       <c r="I129" t="b">
+        <v>0</v>
+      </c>
+      <c r="J129" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5191,32 +5836,37 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NCT05255952</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>NCT04489134</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>EpiCANS : Epicardial Stimulation of the Cardiac Autonomic Nervous System</t>
-        </is>
-      </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>EpiCANS</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>0</v>
+          <t>P-glypoprotein Inhibition Effect on the Pharmacokinetics of Two Tacrolimus Formulations: Prolonged and Extended-release</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>DIPLOID</t>
+        </is>
       </c>
       <c r="H130" t="b">
         <v>0</v>
       </c>
       <c r="I130" t="b">
+        <v>0</v>
+      </c>
+      <c r="J130" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5228,32 +5878,37 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NCT04872023</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NCT03436823</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Immunomonitoring and Multiple Myeloma: Impact of Lenalidomide on Immune Checkpoint</t>
-        </is>
-      </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>IMMUNO-MYELO</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>0</v>
+          <t>Does Nurse Semi - Structured Interview Added to a Repeated Transcranial Magnetic Stimulation Improve Patients With Major Depressive Disorder? A Single Center Study, Randomized, Controlled and Single Blind</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>DESTIMCARE</t>
+        </is>
       </c>
       <c r="H131" t="b">
         <v>0</v>
       </c>
       <c r="I131" t="b">
+        <v>0</v>
+      </c>
+      <c r="J131" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5265,107 +5920,122 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NCT03744351</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>NCT04562207</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Analysis of B Cell Differentiation in Multiple Sclerosis</t>
-        </is>
-      </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ABCD-SEP</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
+          <t>Pre-operative Carriage of Respiratory VIRUSes, and Acute Respiratory Distress Syndrome After Heart Surgery - VIRUS-ATTAC</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>VIRUS-ATTAC</t>
+        </is>
       </c>
       <c r="H132" t="b">
         <v>0</v>
       </c>
       <c r="I132" t="b">
+        <v>0</v>
+      </c>
+      <c r="J132" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>NCT04130711</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>NCT03744351</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Preliminary Study to Evaluate the Effect of an EEG-proprioceptive Neurofeedback on Cortical Excitability and Motor Function of the Upper Limb After Stroke</t>
-        </is>
-      </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>HANDS</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
+          <t>Analysis of B Cell Differentiation in Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>ABCD-SEP</t>
+        </is>
       </c>
       <c r="H133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J133" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NCT04562207</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>NCT04130711</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Pre-operative Carriage of Respiratory VIRUSes, and Acute Respiratory Distress Syndrome After Heart Surgery - VIRUS-ATTAC</t>
-        </is>
-      </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>VIRUS-ATTAC</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
+          <t>Preliminary Study to Evaluate the Effect of an EEG-proprioceptive Neurofeedback on Cortical Excitability and Motor Function of the Upper Limb After Stroke</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>HANDS</t>
+        </is>
       </c>
       <c r="H134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J134" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5376,32 +6046,37 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>NCT02537509</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>Multicentre, Cross-over, PRAgmatic Trial in Atopic Dermatitis Testing Long-term Control Effectiveness of New Phototherapy Regimen During Winter as an add-on Therapy, Coupled With Oral Vitamin D Supplementation vs. Placebo in a Randomised, Parallel-group Trial</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>PRADA</t>
         </is>
       </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
       <c r="H135" t="b">
         <v>1</v>
       </c>
       <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5413,32 +6088,37 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NCT04466800</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NCT04872023</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Functional and Respiratory Rehabilitation and Nutritional Care of COVID-19 Patients</t>
-        </is>
-      </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>RECOVER-19</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
+          <t>Immunomonitoring and Multiple Myeloma: Impact of Lenalidomide on Immune Checkpoint</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>IMMUNO-MYELO</t>
+        </is>
       </c>
       <c r="H136" t="b">
         <v>0</v>
       </c>
       <c r="I136" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5450,32 +6130,37 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>NCT04489134</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>NCT05255952</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>P-glypoprotein Inhibition Effect on the Pharmacokinetics of Two Tacrolimus Formulations: Prolonged and Extended-release</t>
-        </is>
-      </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>DIPLOID</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
+          <t>EpiCANS : Epicardial Stimulation of the Cardiac Autonomic Nervous System</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>EpiCANS</t>
+        </is>
       </c>
       <c r="H137" t="b">
         <v>0</v>
       </c>
       <c r="I137" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5487,32 +6172,37 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>NCT04697407</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr">
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>BREGS - IL-2 Signaling and Polarization of Regulatory LBs: Involvement in Multiple Sclerosis</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>BREGS</t>
         </is>
       </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
       <c r="H138" t="b">
         <v>0</v>
       </c>
       <c r="I138" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5524,32 +6214,37 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NCT03436823</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NCT03807167</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Does Nurse Semi - Structured Interview Added to a Repeated Transcranial Magnetic Stimulation Improve Patients With Major Depressive Disorder? A Single Center Study, Randomized, Controlled and Single Blind</t>
-        </is>
-      </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>DESTIMCARE</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
+          <t>Apathy in Late Life Depression: New Biomarkers Using Actimetry and Magnetic Resonance Imaging</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>ACTIDEP</t>
+        </is>
       </c>
       <c r="H139" t="b">
         <v>0</v>
       </c>
       <c r="I139" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5561,32 +6256,37 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>NCT03807167</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NCT04466800</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Apathy in Late Life Depression: New Biomarkers Using Actimetry and Magnetic Resonance Imaging</t>
-        </is>
-      </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ACTIDEP</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>0</v>
+          <t>Functional and Respiratory Rehabilitation and Nutritional Care of COVID-19 Patients</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>RECOVER-19</t>
+        </is>
       </c>
       <c r="H140" t="b">
         <v>0</v>
       </c>
       <c r="I140" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5598,32 +6298,37 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>NCT04646811</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>TRI-FR : Multicentric Randomized Evaluation of Tricuspid Valve Percutaneous Repair System (Clip for the Tricuspid Valve) in the Treatment of Severe Secondary Tricuspid Disorders</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>TRI-FR</t>
         </is>
       </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
       <c r="H141" t="b">
         <v>1</v>
       </c>
       <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5635,28 +6340,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NCT02883504</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>NCT01296724</t>
+        </is>
+      </c>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>Validation Study of the Accuracy of E/e' in Estimating Left Ventricular Filling Pressure</t>
-        </is>
-      </c>
+      <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>EUROFILLING</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
+          <t>PREMAPIV : Intravesical Pressure Variation at Different Bladder Instillation Volumes in Newborn Children</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
       <c r="H142" t="b">
         <v>0</v>
       </c>
       <c r="I142" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5668,24 +6374,33 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NCT01296724</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NCT02883504</t>
+        </is>
+      </c>
       <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>PREMAPIV : Intravesical Pressure Variation at Different Bladder Instillation Volumes in Newborn Children</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="b">
-        <v>0</v>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Validation Study of the Accuracy of E/e' in Estimating Left Ventricular Filling Pressure</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>EUROFILLING</t>
+        </is>
       </c>
       <c r="H143" t="b">
         <v>0</v>
       </c>
       <c r="I143" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5695,100 +6410,115 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2006-006353-27</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Etude prospective, randomisée, en double aveugle, comparant l'effet d'une décontamination oro-pharyngée par la povidone-iodée à un placebo sur la réduction des pneumopathies acquises sous ventilation chez les patients traumatisés crâniens graves.</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>SPIRIT</t>
+        </is>
+      </c>
+      <c r="H144" t="b">
+        <v>0</v>
+      </c>
+      <c r="I144" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2015-000881-73</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Multicentre, cross-over, PRAgmatic trial in Atopic Dermatitis testing long-term control effectiveness of new phototherapy regimen during winter as an add-on therapy, coupled with oral vitamin D supplementation vs. placebo in a randomised, parallel-group trial 
+ Etude PRAgmatique, multicentrique, en cross-over, évaluant chez des sujets atteints de Dermatite Atopique, l’efficacité sur le contrôle à long terme d’un nouveau protocole de photothérapie durant l’hiver, en traitement “add-on”, avec ou sans supplémentation en vitamine D dans un essai randomisé en groupe parallèle</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>PRADA 
+ PRADA</t>
+        </is>
+      </c>
+      <c r="H145" t="b">
+        <v>0</v>
+      </c>
+      <c r="I145" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr">
         <is>
           <t>2020-001655-41</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
         <is>
           <t>P-glypoprotein inhibition effect on the pharmacokinetics of two tacrolimus formulations: prolonged and extended-release  
  Effet De l’inhibition de la glycoprotéine P sur la pharmacocinétique de deux formes galéniques de tacrolimus</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>DIPLOID 
  DIPLOID</t>
         </is>
       </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2015-000881-73</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>Multicentre, cross-over, PRAgmatic trial in Atopic Dermatitis testing long-term control effectiveness of new phototherapy regimen during winter as an add-on therapy, coupled with oral vitamin D supplementation vs. placebo in a randomised, parallel-group trial 
- Etude PRAgmatique, multicentrique, en cross-over, évaluant chez des sujets atteints de Dermatite Atopique, l’efficacité sur le contrôle à long terme d’un nouveau protocole de photothérapie durant l’hiver, en traitement “add-on”, avec ou sans supplémentation en vitamine D dans un essai randomisé en groupe parallèle</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>PRADA 
- PRADA</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2006-006353-27</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Etude prospective, randomisée, en double aveugle, comparant l'effet d'une décontamination oro-pharyngée par la povidone-iodée à un placebo sur la réduction des pneumopathies acquises sous ventilation chez les patients traumatisés crâniens graves.</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>SPIRIT</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
       <c r="H146" t="b">
         <v>0</v>
       </c>
       <c r="I146" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5798,31 +6528,36 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="inlineStr">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr">
         <is>
           <t>2021-000826-89</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
         <is>
           <t>Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement 
  Etude pharmacocinétique de l’apomorphine en perfusion sous-cutanée continue diurne chez le patient parkinsonien équilibré sous traitement</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>PHARM-APO</t>
         </is>
       </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
       <c r="H147" t="b">
         <v>0</v>
       </c>
       <c r="I147" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
+++ b/publipostage/05qec5a53/liste_essais_cliniques_identifies_05qec5a53.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J147"/>
+  <dimension ref="A1:K147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -640,6 +660,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -720,6 +750,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -758,6 +793,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -800,6 +840,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -842,6 +887,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -884,6 +934,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -922,6 +977,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -964,6 +1024,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1006,6 +1071,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1048,6 +1118,11 @@
       <c r="J15" t="b">
         <v>1</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1090,6 +1165,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1132,6 +1212,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1174,6 +1259,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1216,6 +1306,7 @@
       <c r="J19" t="b">
         <v>1</v>
       </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1258,6 +1349,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1300,6 +1396,7 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1342,6 +1439,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1384,6 +1486,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1426,6 +1533,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1464,6 +1576,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1506,6 +1623,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1548,6 +1670,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1590,6 +1717,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1628,6 +1760,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1670,6 +1807,11 @@
       <c r="J30" t="b">
         <v>1</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1712,6 +1854,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1754,6 +1901,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1796,6 +1948,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1838,6 +1995,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1880,6 +2042,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1922,6 +2089,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1964,6 +2136,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2006,6 +2183,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2048,6 +2230,11 @@
       <c r="J39" t="b">
         <v>1</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2090,6 +2277,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2132,6 +2324,11 @@
       <c r="J41" t="b">
         <v>1</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2174,6 +2371,11 @@
       <c r="J42" t="b">
         <v>1</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2216,6 +2418,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2258,6 +2465,11 @@
       <c r="J44" t="b">
         <v>1</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2300,6 +2512,11 @@
       <c r="J45" t="b">
         <v>1</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2342,6 +2559,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2384,6 +2606,11 @@
       <c r="J47" t="b">
         <v>1</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2426,6 +2653,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2468,6 +2700,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2510,6 +2747,11 @@
       <c r="J50" t="b">
         <v>1</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2552,6 +2794,11 @@
       <c r="J51" t="b">
         <v>0</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2594,6 +2841,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2636,6 +2888,11 @@
       <c r="J53" t="b">
         <v>1</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2678,6 +2935,11 @@
       <c r="J54" t="b">
         <v>1</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2720,6 +2982,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2758,6 +3025,11 @@
       <c r="J56" t="b">
         <v>1</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2800,6 +3072,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2842,6 +3119,11 @@
       <c r="J58" t="b">
         <v>1</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2884,6 +3166,11 @@
       <c r="J59" t="b">
         <v>1</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2926,6 +3213,11 @@
       <c r="J60" t="b">
         <v>1</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2968,6 +3260,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3010,6 +3307,11 @@
       <c r="J62" t="b">
         <v>1</v>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3052,6 +3354,11 @@
       <c r="J63" t="b">
         <v>1</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3094,6 +3401,11 @@
       <c r="J64" t="b">
         <v>1</v>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3136,6 +3448,11 @@
       <c r="J65" t="b">
         <v>0</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3178,6 +3495,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3220,6 +3542,11 @@
       <c r="J67" t="b">
         <v>0</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3258,6 +3585,11 @@
       <c r="J68" t="b">
         <v>0</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3300,6 +3632,11 @@
       <c r="J69" t="b">
         <v>0</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3342,6 +3679,11 @@
       <c r="J70" t="b">
         <v>1</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3384,6 +3726,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3427,6 +3774,7 @@
       <c r="J72" t="b">
         <v>0</v>
       </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3469,6 +3817,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3511,6 +3864,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3553,6 +3911,11 @@
       <c r="J75" t="b">
         <v>0</v>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3595,6 +3958,11 @@
       <c r="J76" t="b">
         <v>0</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3637,6 +4005,11 @@
       <c r="J77" t="b">
         <v>1</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3679,6 +4052,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3721,6 +4099,11 @@
       <c r="J79" t="b">
         <v>1</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3763,6 +4146,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3805,6 +4193,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3847,6 +4240,11 @@
       <c r="J82" t="b">
         <v>1</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3889,6 +4287,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3931,6 +4334,11 @@
       <c r="J84" t="b">
         <v>1</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3973,6 +4381,11 @@
       <c r="J85" t="b">
         <v>1</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4015,6 +4428,11 @@
       <c r="J86" t="b">
         <v>1</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4057,6 +4475,11 @@
       <c r="J87" t="b">
         <v>1</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4099,6 +4522,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4141,6 +4569,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4183,6 +4616,11 @@
       <c r="J90" t="b">
         <v>1</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4229,6 +4667,11 @@
       <c r="J91" t="b">
         <v>1</v>
       </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4271,6 +4714,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4313,6 +4761,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4355,6 +4808,11 @@
       <c r="J94" t="b">
         <v>1</v>
       </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4397,6 +4855,11 @@
       <c r="J95" t="b">
         <v>1</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4439,6 +4902,11 @@
       <c r="J96" t="b">
         <v>1</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4481,6 +4949,11 @@
       <c r="J97" t="b">
         <v>1</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4523,6 +4996,11 @@
       <c r="J98" t="b">
         <v>1</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4565,6 +5043,11 @@
       <c r="J99" t="b">
         <v>1</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4607,6 +5090,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4649,6 +5137,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4691,6 +5184,11 @@
       <c r="J102" t="b">
         <v>0</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4733,6 +5231,11 @@
       <c r="J103" t="b">
         <v>1</v>
       </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4775,6 +5278,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4817,6 +5325,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4859,6 +5372,11 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4901,6 +5419,11 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4943,6 +5466,11 @@
       <c r="J108" t="b">
         <v>1</v>
       </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4985,6 +5513,11 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -5027,6 +5560,11 @@
       <c r="J110" t="b">
         <v>0</v>
       </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5069,6 +5607,11 @@
       <c r="J111" t="b">
         <v>1</v>
       </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -5111,6 +5654,11 @@
       <c r="J112" t="b">
         <v>1</v>
       </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5153,6 +5701,11 @@
       <c r="J113" t="b">
         <v>0</v>
       </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -5194,6 +5747,11 @@
       </c>
       <c r="J114" t="b">
         <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
       </c>
     </row>
     <row r="115">
@@ -5242,6 +5800,7 @@
       <c r="J115" t="b">
         <v>0</v>
       </c>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -5284,6 +5843,11 @@
       <c r="J116" t="b">
         <v>0</v>
       </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5326,6 +5890,11 @@
       <c r="J117" t="b">
         <v>0</v>
       </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -5368,6 +5937,11 @@
       <c r="J118" t="b">
         <v>0</v>
       </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -5406,6 +5980,11 @@
       <c r="J119" t="b">
         <v>0</v>
       </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -5448,6 +6027,11 @@
       <c r="J120" t="b">
         <v>0</v>
       </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -5490,6 +6074,11 @@
       <c r="J121" t="b">
         <v>0</v>
       </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -5532,6 +6121,11 @@
       <c r="J122" t="b">
         <v>0</v>
       </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -5574,6 +6168,11 @@
       <c r="J123" t="b">
         <v>0</v>
       </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -5616,6 +6215,11 @@
       <c r="J124" t="b">
         <v>0</v>
       </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -5658,6 +6262,11 @@
       <c r="J125" t="b">
         <v>0</v>
       </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -5700,6 +6309,11 @@
       <c r="J126" t="b">
         <v>1</v>
       </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -5742,6 +6356,11 @@
       <c r="J127" t="b">
         <v>0</v>
       </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -5785,6 +6404,7 @@
       <c r="J128" t="b">
         <v>0</v>
       </c>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5827,6 +6447,11 @@
       <c r="J129" t="b">
         <v>0</v>
       </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -5869,6 +6494,11 @@
       <c r="J130" t="b">
         <v>0</v>
       </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5911,6 +6541,11 @@
       <c r="J131" t="b">
         <v>0</v>
       </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5953,6 +6588,11 @@
       <c r="J132" t="b">
         <v>0</v>
       </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5995,6 +6635,11 @@
       <c r="J133" t="b">
         <v>0</v>
       </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -6037,6 +6682,11 @@
       <c r="J134" t="b">
         <v>1</v>
       </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -6079,6 +6729,11 @@
       <c r="J135" t="b">
         <v>1</v>
       </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -6121,6 +6776,11 @@
       <c r="J136" t="b">
         <v>0</v>
       </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -6163,6 +6823,11 @@
       <c r="J137" t="b">
         <v>0</v>
       </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -6205,6 +6870,11 @@
       <c r="J138" t="b">
         <v>0</v>
       </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -6247,6 +6917,11 @@
       <c r="J139" t="b">
         <v>0</v>
       </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -6289,6 +6964,11 @@
       <c r="J140" t="b">
         <v>0</v>
       </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -6330,6 +7010,11 @@
       </c>
       <c r="J141" t="b">
         <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="142">
@@ -6365,6 +7050,11 @@
       <c r="J142" t="b">
         <v>0</v>
       </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -6403,6 +7093,11 @@
       <c r="J143" t="b">
         <v>0</v>
       </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -6441,6 +7136,7 @@
       <c r="J144" t="b">
         <v>0</v>
       </c>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -6481,6 +7177,7 @@
       <c r="J145" t="b">
         <v>0</v>
       </c>
+      <c r="K145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -6521,6 +7218,7 @@
       <c r="J146" t="b">
         <v>0</v>
       </c>
+      <c r="K146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6560,6 +7258,7 @@
       <c r="J147" t="b">
         <v>0</v>
       </c>
+      <c r="K147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
